--- a/demo_c/common/excel_test.xlsx
+++ b/demo_c/common/excel_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZZZZZZ\all_test\api_test\demo_c\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D367E1-D16F-4B57-95C8-25739154E5C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5EC4BA-6907-49B6-828F-D93A4E0EEC0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,110 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>东夋壬</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{BE69B41F-87F3-400D-8E46-8D3C69E94D8A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>东夋壬:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{DE0C22C3-7E8F-4794-8FCD-C19C96E62CF3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>东夋壬:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+请求方法</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A05065F5-A0D1-48AD-9117-84799C3E1331}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>东夋壬:
+接口地址</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{65C6EE5F-EAFA-45DE-9F6D-812F9EF5B0AF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>东夋壬:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+请求参数</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
@@ -28,12 +132,6 @@
     <t>Method</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -50,13 +148,21 @@
   </si>
   <si>
     <t>{'access_token':'ACCESS_TOKEN','userid':'USERID'}</t>
+  </si>
+  <si>
+    <t>Url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +176,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,8 +213,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -109,6 +233,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,120 +501,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>